--- a/Documentation/gantt chart/gantt (version 1).xlsx
+++ b/Documentation/gantt chart/gantt (version 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -106,13 +106,61 @@
   </si>
   <si>
     <t>UC23 Import fencing attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Create login screen user/pw</t>
+  </si>
+  <si>
+    <t>2. Create authentication to server</t>
+  </si>
+  <si>
+    <t>1. Create scrollable/clickable list of customers</t>
+  </si>
+  <si>
+    <t>1. Display customer info</t>
+  </si>
+  <si>
+    <t>1. Create new customer button</t>
+  </si>
+  <si>
+    <t>2. Link button to customer info page</t>
+  </si>
+  <si>
+    <t>1. Link clickable project to info</t>
+  </si>
+  <si>
+    <t>1. Add textbox for user to add note</t>
+  </si>
+  <si>
+    <t>2. Save note server end</t>
+  </si>
+  <si>
+    <t>1. Create scrollable/clickable list of projects/quotes</t>
+  </si>
+  <si>
+    <t>2. Link project to show info</t>
+  </si>
+  <si>
+    <t>1. Create master account manually to approve other accounts</t>
+  </si>
+  <si>
+    <t>2. Create button to create account</t>
+  </si>
+  <si>
+    <t>3. Link button to create account page</t>
+  </si>
+  <si>
+    <t>4. Take info and authenticate password</t>
+  </si>
+  <si>
+    <t>5. Show account created screen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +190,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,12 +242,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -277,85 +342,133 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>UC1 Log in to Application</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> 1. Create login screen user/pw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2. Create authentication to server</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>UC2 Browse Customers</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>1. Create scrollable/clickable list of customers</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>UC3 View Customer Info</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>1. Display customer info</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>UC4 Add new customer</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>1. Create new customer button</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2. Link button to customer info page</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>UC5 View project</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
+                  <c:v>1. Link clickable project to info</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>UC16 Add note</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>1. Add textbox for user to add note</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2. Save note server end</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>UC25 Create new project</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>1. Create scrollable/clickable list of projects/quotes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2. Link project to show info</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>UC26 Create account</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
+                  <c:v>1. Create master account manually to approve other accounts</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2. Create button to create account</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3. Link button to create account page</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4. Take info and authenticate password</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5. Show account created screen</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>UC6 Modify project</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>UC7 Add fence</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>UC8 Remove fence</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>UC9 Modify fence</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>UC10 Add gate</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
                   <c:v>UC11 Remove gate</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="30">
                   <c:v>UC12 Modify gate</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="31">
                   <c:v>UC13 Add a building</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>UC14 Remove bulding</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
                   <c:v>UC17 Change status</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="34">
                   <c:v>UC18 View project summary</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="35">
                   <c:v>UC19 Send email to customer and supplier</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="36">
                   <c:v>UC24 Add project picture</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="37">
                   <c:v>UC15 Modify quote</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="38">
                   <c:v>UC20 View accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="39">
                   <c:v>UC21 Export accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="40">
                   <c:v>UC22 View fencing attributes</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="41">
                   <c:v>UC23 Import fencing attributes</c:v>
                 </c:pt>
               </c:strCache>
@@ -363,10 +476,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43008.0</c:v>
                 </c:pt>
@@ -374,7 +487,7 @@
                   <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43008.0</c:v>
+                  <c:v>43010.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43008.0</c:v>
@@ -383,67 +496,19 @@
                   <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43008.0</c:v>
+                  <c:v>43015.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43008.0</c:v>
+                  <c:v>43015.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43029.0</c:v>
+                  <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43029.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43050.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43050.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43050.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43050.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43050.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43050.0</c:v>
+                  <c:v>43015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,85 +531,133 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>UC1 Log in to Application</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> 1. Create login screen user/pw</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2. Create authentication to server</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>UC2 Browse Customers</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>1. Create scrollable/clickable list of customers</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>UC3 View Customer Info</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>1. Display customer info</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>UC4 Add new customer</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>1. Create new customer button</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2. Link button to customer info page</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>UC5 View project</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
+                  <c:v>1. Link clickable project to info</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>UC16 Add note</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>1. Add textbox for user to add note</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2. Save note server end</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>UC25 Create new project</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>1. Create scrollable/clickable list of projects/quotes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2. Link project to show info</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>UC26 Create account</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
+                  <c:v>1. Create master account manually to approve other accounts</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2. Create button to create account</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3. Link button to create account page</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4. Take info and authenticate password</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5. Show account created screen</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>UC6 Modify project</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>UC7 Add fence</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>UC8 Remove fence</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>UC9 Modify fence</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>UC10 Add gate</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
                   <c:v>UC11 Remove gate</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="30">
                   <c:v>UC12 Modify gate</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="31">
                   <c:v>UC13 Add a building</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>UC14 Remove bulding</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
                   <c:v>UC17 Change status</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="34">
                   <c:v>UC18 View project summary</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="35">
                   <c:v>UC19 Send email to customer and supplier</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="36">
                   <c:v>UC24 Add project picture</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="37">
                   <c:v>UC15 Modify quote</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="38">
                   <c:v>UC20 View accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="39">
                   <c:v>UC21 Export accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="40">
                   <c:v>UC22 View fencing attributes</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="41">
                   <c:v>UC23 Import fencing attributes</c:v>
                 </c:pt>
               </c:strCache>
@@ -552,39 +665,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Sheet1!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20.0</c:v>
@@ -632,6 +745,12 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -648,11 +767,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2095949256"/>
-        <c:axId val="2095951624"/>
+        <c:axId val="2067609064"/>
+        <c:axId val="2065740328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095949256"/>
+        <c:axId val="2067609064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -661,7 +780,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095951624"/>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr u="none"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2065740328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095951624"/>
+        <c:axId val="2065740328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43070.0"/>
@@ -682,7 +811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095949256"/>
+        <c:crossAx val="2067609064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -718,10 +847,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1065,15 +1194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1089,294 +1218,348 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>43008</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>43008</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>43008</v>
+        <v>43010</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>43008</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>43008</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43008</v>
+        <v>43015</v>
       </c>
       <c r="C7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="2">
-        <v>43008</v>
+        <v>43015</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>43008</v>
       </c>
       <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="2">
-        <v>43029</v>
+        <v>43008</v>
       </c>
       <c r="C10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="2">
-        <v>43029</v>
+        <v>43015</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43029</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43029</v>
-      </c>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43029</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43029</v>
-      </c>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43029</v>
-      </c>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43029</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43029</v>
-      </c>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43029</v>
-      </c>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43029</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43029</v>
-      </c>
+    <row r="21" spans="1:3" ht="17">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43050</v>
-      </c>
+    <row r="22" spans="1:3" ht="17">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43050</v>
-      </c>
+    <row r="23" spans="1:3" ht="17">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43050</v>
-      </c>
+    <row r="24" spans="1:3" ht="17">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43050</v>
-      </c>
+    <row r="25" spans="1:3" ht="17">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3">
-        <v>43050</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>43050</v>
-      </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documentation/gantt chart/gantt (version 1).xlsx
+++ b/Documentation/gantt chart/gantt (version 1).xlsx
@@ -510,6 +510,48 @@
                 <c:pt idx="9">
                   <c:v>43015.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>43022.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43022.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43022.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43022.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43022.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43015.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43022.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43008.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43008.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43008.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43008.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43015.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43015.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -700,46 +742,46 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>20.0</c:v>
@@ -1194,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1206,7 +1248,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1327,83 +1369,104 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>43022</v>
+      </c>
       <c r="C12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>43022</v>
+      </c>
       <c r="C13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>43022</v>
+      </c>
       <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>43022</v>
+      </c>
       <c r="C15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>43022</v>
+      </c>
       <c r="C16">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>43015</v>
+      </c>
       <c r="C17">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>43015</v>
+      </c>
       <c r="C18">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>43022</v>
+      </c>
       <c r="C19">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>43008</v>
+      </c>
       <c r="C20">
         <v>20</v>
       </c>
@@ -1412,45 +1475,55 @@
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>43008</v>
+      </c>
       <c r="C21">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>43008</v>
+      </c>
       <c r="C22">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>43008</v>
+      </c>
       <c r="C23">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>43015</v>
+      </c>
       <c r="C24">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2">
+        <v>43015</v>
+      </c>
       <c r="C25">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">

--- a/Documentation/gantt chart/gantt (version 1).xlsx
+++ b/Documentation/gantt chart/gantt (version 1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -154,13 +154,101 @@
   </si>
   <si>
     <t>5. Show account created screen</t>
+  </si>
+  <si>
+    <t>1. Edit info with clicked</t>
+  </si>
+  <si>
+    <t>1. Add fence to drawing</t>
+  </si>
+  <si>
+    <t>2. Server end estimate for fence</t>
+  </si>
+  <si>
+    <t>1. Remove fence from drawing</t>
+  </si>
+  <si>
+    <t>2. Server end estimate update</t>
+  </si>
+  <si>
+    <t>1. Change fence attributes</t>
+  </si>
+  <si>
+    <t>1. Add gate to drawing</t>
+  </si>
+  <si>
+    <t>1. Remove gate to drawing</t>
+  </si>
+  <si>
+    <t>1. Modify gate attributes</t>
+  </si>
+  <si>
+    <t>1. Add building icon to drawing house/garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Remove building icon from drawing house/garage</t>
+  </si>
+  <si>
+    <t>1. Give project new, inprogress, or complete status</t>
+  </si>
+  <si>
+    <t>2. Update the status in server</t>
+  </si>
+  <si>
+    <t>1. Display all project info</t>
+  </si>
+  <si>
+    <t>1. Create button for customer</t>
+  </si>
+  <si>
+    <t>2. Create button for supplier</t>
+  </si>
+  <si>
+    <t>3. Send email</t>
+  </si>
+  <si>
+    <t>1. Create button for option to take picture</t>
+  </si>
+  <si>
+    <t>2. Capture picture from camera and display on screen</t>
+  </si>
+  <si>
+    <t>1. Allow user to edit quote</t>
+  </si>
+  <si>
+    <t>2. Apply discounts on server end</t>
+  </si>
+  <si>
+    <t>1. Create button to view accounting summary</t>
+  </si>
+  <si>
+    <t>2. View all accounting info</t>
+  </si>
+  <si>
+    <t>1. Create button to export accounting summary</t>
+  </si>
+  <si>
+    <t>2. Export into file type (excel)</t>
+  </si>
+  <si>
+    <t>1. Create button to view fencing attributes</t>
+  </si>
+  <si>
+    <t>2. Display in new page list of materials, colors, styles, cost</t>
+  </si>
+  <si>
+    <t>1. Create button for import of excel files</t>
+  </si>
+  <si>
+    <t>2. Display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +289,26 @@
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -225,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -241,22 +349,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -264,6 +421,26 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -271,6 +448,26 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,9 +539,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>UC1 Log in to Application</c:v>
                 </c:pt>
@@ -417,69 +614,168 @@
                 <c:pt idx="23">
                   <c:v>5. Show account created screen</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>UC6 Modify project</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>1. Edit info with clicked</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>UC7 Add fence</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>1. Add fence to drawing</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2. Server end estimate for fence</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>UC8 Remove fence</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>1. Remove fence from drawing</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>UC9 Modify fence</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>1. Change fence attributes</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>UC10 Add gate</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="37">
+                  <c:v>1. Add gate to drawing</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>UC11 Remove gate</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
+                  <c:v>1. Remove gate to drawing</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>UC12 Modify gate</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="43">
+                  <c:v>1. Modify gate attributes</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>UC13 Add a building</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="46">
+                  <c:v>1. Add building icon to drawing house/garage</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>UC14 Remove bulding</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="48">
+                  <c:v>_x000d_2. Remove building icon from drawing house/garage</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>UC17 Change status</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="50">
+                  <c:v>1. Give project new, inprogress, or complete status</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2. Update the status in server</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>UC18 View project summary</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="53">
+                  <c:v>1. Display all project info</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>UC19 Send email to customer and supplier</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="55">
+                  <c:v>1. Create button for customer</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2. Create button for supplier</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3. Send email</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>UC24 Add project picture</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="59">
+                  <c:v>1. Create button for option to take picture</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2. Capture picture from camera and display on screen</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>UC15 Modify quote</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="63">
+                  <c:v>1. Allow user to edit quote</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2. Apply discounts on server end</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>UC20 View accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="66">
+                  <c:v>1. Create button to view accounting summary</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2. View all accounting info</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>UC21 Export accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="69">
+                  <c:v>1. Create button to export accounting summary</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2. Export into file type (excel)</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>UC22 View fencing attributes</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="72">
+                  <c:v>1. Create button to view fencing attributes</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2. Display in new page list of materials, colors, styles, cost</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>UC23 Import fencing attributes</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1. Create button for import of excel files</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2. Display</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43008.0</c:v>
                 </c:pt>
@@ -551,6 +847,159 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43015.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43035.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43035.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43035.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43035.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43035.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43028.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43051.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43050.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43050.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43056.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43056.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43057.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43050.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43051.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,9 +1022,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>UC1 Log in to Application</c:v>
                 </c:pt>
@@ -648,69 +1097,168 @@
                 <c:pt idx="23">
                   <c:v>5. Show account created screen</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>UC6 Modify project</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>1. Edit info with clicked</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>UC7 Add fence</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>1. Add fence to drawing</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2. Server end estimate for fence</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>UC8 Remove fence</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>1. Remove fence from drawing</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>UC9 Modify fence</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>1. Change fence attributes</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>UC10 Add gate</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="37">
+                  <c:v>1. Add gate to drawing</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>UC11 Remove gate</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
+                  <c:v>1. Remove gate to drawing</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>UC12 Modify gate</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="43">
+                  <c:v>1. Modify gate attributes</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2. Server end estimate update</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>UC13 Add a building</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="46">
+                  <c:v>1. Add building icon to drawing house/garage</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>UC14 Remove bulding</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="48">
+                  <c:v>_x000d_2. Remove building icon from drawing house/garage</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>UC17 Change status</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="50">
+                  <c:v>1. Give project new, inprogress, or complete status</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2. Update the status in server</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>UC18 View project summary</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="53">
+                  <c:v>1. Display all project info</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>UC19 Send email to customer and supplier</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="55">
+                  <c:v>1. Create button for customer</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2. Create button for supplier</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3. Send email</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>UC24 Add project picture</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="59">
+                  <c:v>1. Create button for option to take picture</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2. Capture picture from camera and display on screen</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>UC15 Modify quote</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="63">
+                  <c:v>1. Allow user to edit quote</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2. Apply discounts on server end</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>UC20 View accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="66">
+                  <c:v>1. Create button to view accounting summary</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2. View all accounting info</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>UC21 Export accounting summary</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="69">
+                  <c:v>1. Create button to export accounting summary</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2. Export into file type (excel)</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>UC22 View fencing attributes</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="72">
+                  <c:v>1. Create button to view fencing attributes</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2. Display in new page list of materials, colors, styles, cost</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>UC23 Import fencing attributes</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1. Create button for import of excel files</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2. Display</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:f>Sheet1!$C$2:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -783,17 +1331,158 @@
                 <c:pt idx="23">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.0</c:v>
+                <c:pt idx="75">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,10 +1578,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1236,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1260,7 +1949,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -1271,7 +1960,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="2">
@@ -1282,7 +1971,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2">
@@ -1526,112 +2215,738 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
+    <row r="26" spans="1:3" ht="17">
+      <c r="A26" s="5"/>
       <c r="B26" s="2"/>
-      <c r="C26">
-        <v>20</v>
-      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43028</v>
+      </c>
       <c r="C27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43028</v>
+      </c>
       <c r="C28">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C29">
         <v>14</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>16</v>
+    </row>
+    <row r="30" spans="1:3" ht="17">
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C32" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17">
+      <c r="A33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17">
+      <c r="A37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17">
+      <c r="A39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17">
+      <c r="A40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17">
+      <c r="A43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B44" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17">
+      <c r="A45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17">
+      <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B47" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17">
+      <c r="A48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B49" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="25">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43028</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B51" s="2">
+        <v>43028</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43028</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17">
+      <c r="A53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43028</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B54" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17">
+      <c r="A55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B56" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17">
+      <c r="A57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17">
+      <c r="A58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17">
+      <c r="A59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B60" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B64" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17">
+      <c r="A65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17">
+      <c r="A66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43051</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B67" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17">
+      <c r="A69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B70" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17">
+      <c r="A72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B73" s="2">
+        <v>43056</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43056</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43057</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>28</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17">
+      <c r="A78" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="14">
+        <v>43051</v>
+      </c>
+      <c r="C78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8">
+      <c r="F117" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" ht="17">
+      <c r="F118" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G118" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8" ht="17">
+      <c r="F119" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="2">
+        <v>43051</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8">
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8">
+      <c r="F121" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G121" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8" ht="17">
+      <c r="F122" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G122" s="2">
+        <v>43050</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8">
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8">
+      <c r="F124" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8" ht="17">
+      <c r="F125" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G125" s="2">
+        <v>43050</v>
+      </c>
+      <c r="H125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8">
+      <c r="F126" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="2">
+        <v>43056</v>
+      </c>
+      <c r="H126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8">
+      <c r="F127" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G127" s="2">
+        <v>43056</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8">
+      <c r="F128" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" s="2">
+        <v>43057</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8">
+      <c r="F129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="2">
+        <v>43049</v>
+      </c>
+      <c r="H129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8">
+      <c r="F130" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G130" s="2">
+        <v>43050</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" ht="17">
+      <c r="F131" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G131" s="14">
+        <v>43051</v>
+      </c>
+      <c r="H131">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
